--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAECEE-EF9B-BA43-B7CB-72485B1B505B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFC815-89DD-5844-94B1-7216C26F3A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId1"/>
-    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId2"/>
-    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId3"/>
-    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId4"/>
-    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId5"/>
-    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId6"/>
-    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId7"/>
-    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId8"/>
-    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId9"/>
-    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId10"/>
-    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId11"/>
-    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId12"/>
-    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId13"/>
-    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId14"/>
-    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId15"/>
-    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId16"/>
-    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId17"/>
-    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId18"/>
-    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId19"/>
-    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId20"/>
+    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId1"/>
+    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId2"/>
+    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId3"/>
+    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId4"/>
+    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId5"/>
+    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId6"/>
+    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId7"/>
+    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId8"/>
+    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId9"/>
+    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId10"/>
+    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId11"/>
+    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId12"/>
+    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId13"/>
+    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId14"/>
+    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId15"/>
+    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId16"/>
+    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId17"/>
+    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId18"/>
+    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId19"/>
+    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId20"/>
+    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="117">
   <si>
     <t>Province/State</t>
   </si>
@@ -389,6 +390,12 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>1/30/2020 21:30</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
@@ -760,8 +767,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
-  <dimension ref="A1:F59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -797,16 +804,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1">
-        <v>4903</v>
+        <v>5806</v>
       </c>
       <c r="E2" s="1">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -817,14 +824,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1">
-        <v>428</v>
+        <v>537</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -835,14 +842,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,16 +860,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -873,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
@@ -885,56 +892,56 @@
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -945,14 +952,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,10 +970,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -983,48 +990,48 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1041,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1">
         <v>101</v>
@@ -1057,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1">
@@ -1069,36 +1076,36 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1109,51 +1116,51 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="1">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1163,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1">
@@ -1181,10 +1188,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1">
@@ -1199,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1215,92 +1222,94 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1">
@@ -1315,10 +1324,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1331,7 +1340,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
@@ -1347,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -1363,7 +1372,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1379,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1395,7 +1404,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1411,10 +1420,10 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1427,7 +1436,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1443,7 +1452,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1">
         <v>11</v>
@@ -1473,7 +1482,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1">
         <v>14</v>
@@ -1489,10 +1498,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1503,7 +1512,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -1517,7 +1526,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -1531,7 +1540,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1545,7 +1554,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1559,7 +1568,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
@@ -1575,7 +1584,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1591,7 +1600,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1605,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1619,7 +1628,7 @@
         <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1635,7 +1644,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -1653,7 +1662,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1669,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1685,7 +1694,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1699,7 +1708,7 @@
         <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1713,7 +1722,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1727,7 +1736,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1741,11 +1750,26 @@
         <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,6 +1777,869 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1423</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55474FAD-47BE-A446-80F0-0652C8024DDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -2567,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D109F2-335E-B842-B29F-32988756D99B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -3364,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422DC1B8-61A7-9F4B-AD6D-16910AF9DAD2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -4208,7 +5095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14E1D-A573-C549-91F0-85D6781C45FF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -5016,7 +5903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF828E8-2C21-3145-94D4-8BD2B2FC2D5C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -5820,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C6ACE-A5E7-894A-9E03-A4D184028106}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -6622,7 +7509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996331F-AA5D-7040-8F17-DE10C3DA49A5}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -7383,7 +8270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459AF105-9E29-6E4D-801B-CA0BFB7BA013}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -8087,7 +8974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -8895,7 +9782,1000 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4903</v>
+      </c>
+      <c r="E2" s="1">
+        <v>162</v>
+      </c>
+      <c r="F2" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1">
+        <v>428</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="1">
+        <v>354</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1">
+        <v>278</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="1">
+        <v>162</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1">
+        <v>158</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5045D7-534A-2941-A13E-3353E7C989D0}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -9497,7 +11377,456 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C2:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="1">
+        <v>270</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="G23" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -10459,456 +12788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C2:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="1">
-        <v>270</v>
-      </c>
-      <c r="G18" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="G23" s="1">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -11841,7 +13721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB9813-8C08-1D4E-84D9-F0E88353F568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -12730,7 +14610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -13617,7 +15497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
   <dimension ref="A1:G53"/>
   <sheetViews>
@@ -14659,7 +16539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -15526,7 +17406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -16408,867 +18288,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1423</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1">
-        <v>151</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1">
-        <v>128</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1">
-        <v>128</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1">
-        <v>110</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1">
-        <v>75</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>72</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1">
-        <v>23</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="1">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFC815-89DD-5844-94B1-7216C26F3A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8975A-CCBD-5A45-8039-C4BCF1427AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" firstSheet="11" activeTab="18" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="98">
   <si>
     <t>Province/State</t>
   </si>
@@ -282,63 +282,6 @@
   </si>
   <si>
     <t>British Columbia</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>TWN</t>
-  </si>
-  <si>
-    <t>HKG</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>THA</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
-    <t>MYS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>LKA</t>
   </si>
   <si>
     <t>1/28/2020 23:00</t>
@@ -770,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -804,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
         <v>5806</v>
@@ -824,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <v>537</v>
@@ -842,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>393</v>
@@ -860,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>352</v>
@@ -880,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>332</v>
@@ -898,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>240</v>
@@ -916,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
         <v>237</v>
@@ -934,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>206</v>
@@ -952,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1">
         <v>178</v>
@@ -970,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>177</v>
@@ -990,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1">
         <v>168</v>
@@ -1008,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1">
         <v>128</v>
@@ -1028,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1">
         <v>121</v>
@@ -1048,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1">
         <v>101</v>
@@ -1064,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1">
         <v>87</v>
@@ -1082,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1">
         <v>82</v>
@@ -1100,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1">
         <v>76</v>
@@ -1116,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1">
         <v>87</v>
@@ -1132,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1">
         <v>59</v>
@@ -1150,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
@@ -1170,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1">
         <v>45</v>
@@ -1188,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1">
         <v>39</v>
@@ -1206,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1">
         <v>32</v>
@@ -1222,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1">
         <v>29</v>
@@ -1238,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1">
         <v>21</v>
@@ -1256,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -1272,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1">
         <v>17</v>
@@ -1288,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1">
         <v>15</v>
@@ -1306,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1">
         <v>14</v>
@@ -1324,7 +1267,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -1340,7 +1283,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
@@ -1356,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -1372,7 +1315,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1388,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1404,7 +1347,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1420,7 +1363,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -1436,7 +1379,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1452,7 +1395,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1466,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1">
         <v>11</v>
@@ -1482,7 +1425,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1">
         <v>14</v>
@@ -1498,7 +1441,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
@@ -1512,7 +1455,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -1526,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -1540,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1554,7 +1497,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1568,7 +1511,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
@@ -1584,7 +1527,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1600,7 +1543,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1614,7 +1557,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1628,7 +1571,7 @@
         <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1644,7 +1587,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -1662,7 +1605,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1672,13 +1615,13 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1694,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1705,10 +1648,10 @@
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1719,10 +1662,10 @@
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1736,7 +1679,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1747,10 +1690,10 @@
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1761,10 +1704,10 @@
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -1780,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -4295,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1">
         <v>1058</v>
@@ -4316,7 +4259,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>111</v>
@@ -4335,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1">
         <v>104</v>
@@ -4354,7 +4297,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>83</v>
@@ -4375,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
@@ -4392,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
         <v>69</v>
@@ -4409,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>68</v>
@@ -4428,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1">
         <v>60</v>
@@ -4447,7 +4390,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>46</v>
@@ -4464,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1">
         <v>44</v>
@@ -4483,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1">
         <v>40</v>
@@ -4506,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1">
         <v>36</v>
@@ -4523,7 +4466,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1">
         <v>36</v>
@@ -4540,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1">
         <v>35</v>
@@ -4559,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1">
         <v>33</v>
@@ -4578,7 +4521,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1">
         <v>22</v>
@@ -4595,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1">
         <v>22</v>
@@ -4612,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1">
         <v>21</v>
@@ -4629,7 +4572,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1">
         <v>16</v>
@@ -4648,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1">
         <v>15</v>
@@ -4667,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1">
         <v>14</v>
@@ -4684,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1">
         <v>13</v>
@@ -4703,7 +4646,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1">
         <v>9</v>
@@ -4720,7 +4663,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -4739,7 +4682,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1">
         <v>7</v>
@@ -4756,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1">
         <v>7</v>
@@ -4773,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -4790,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -4807,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -4824,7 +4767,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -4841,7 +4784,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -4858,7 +4801,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -4875,7 +4818,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -4892,7 +4835,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -4909,7 +4852,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -4926,7 +4869,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -4941,7 +4884,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -4958,7 +4901,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -4975,7 +4918,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -4990,7 +4933,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -5005,7 +4948,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -5020,7 +4963,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -5035,7 +4978,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -5050,7 +4993,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -5065,7 +5008,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -5082,7 +5025,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -5139,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>1052</v>
@@ -5160,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1">
         <v>104</v>
@@ -5179,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1">
         <v>98</v>
@@ -5198,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>83</v>
@@ -5219,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>75</v>
@@ -5236,7 +5179,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>69</v>
@@ -5253,7 +5196,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1">
         <v>60</v>
@@ -5272,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
         <v>51</v>
@@ -5291,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>44</v>
@@ -5310,7 +5253,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -5333,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1">
         <v>39</v>
@@ -5350,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1">
         <v>36</v>
@@ -5367,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1">
         <v>33</v>
@@ -5384,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1">
         <v>31</v>
@@ -5403,7 +5346,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1">
         <v>19</v>
@@ -5420,7 +5363,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
         <v>19</v>
@@ -5437,7 +5380,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1">
         <v>18</v>
@@ -5458,7 +5401,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -5475,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1">
         <v>15</v>
@@ -5492,7 +5435,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1">
         <v>13</v>
@@ -5509,7 +5452,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1">
         <v>13</v>
@@ -5528,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
@@ -5547,7 +5490,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1">
         <v>9</v>
@@ -5564,7 +5507,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1">
         <v>7</v>
@@ -5581,7 +5524,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1">
         <v>7</v>
@@ -5598,7 +5541,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -5615,7 +5558,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -5634,7 +5577,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -5653,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -5670,7 +5613,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -5687,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -5704,7 +5647,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -5721,7 +5664,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -5738,7 +5681,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -5755,7 +5698,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -5770,7 +5713,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -5785,7 +5728,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1">
         <v>7</v>
@@ -5800,7 +5743,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -5815,7 +5758,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -5830,7 +5773,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -5845,7 +5788,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -5860,7 +5803,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -5875,7 +5818,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -5890,7 +5833,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -5947,7 +5890,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>761</v>
@@ -5968,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
@@ -5987,7 +5930,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1">
         <v>62</v>
@@ -6006,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <v>57</v>
@@ -6023,7 +5966,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
         <v>43</v>
@@ -6040,7 +5983,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>41</v>
@@ -6059,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1">
         <v>39</v>
@@ -6078,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1">
         <v>33</v>
@@ -6099,7 +6042,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -6118,7 +6061,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
         <v>28</v>
@@ -6137,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
         <v>27</v>
@@ -6154,7 +6097,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
         <v>23</v>
@@ -6171,7 +6114,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1">
         <v>19</v>
@@ -6188,7 +6131,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1">
         <v>18</v>
@@ -6205,7 +6148,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1">
         <v>18</v>
@@ -6224,7 +6167,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1">
         <v>18</v>
@@ -6243,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -6260,7 +6203,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -6277,7 +6220,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1">
         <v>11</v>
@@ -6296,7 +6239,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -6313,7 +6256,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
@@ -6332,7 +6275,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -6351,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
         <v>7</v>
@@ -6368,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -6385,7 +6328,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -6404,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -6421,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -6438,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -6455,7 +6398,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -6474,7 +6417,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -6491,7 +6434,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -6508,7 +6451,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -6525,7 +6468,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -6542,7 +6485,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -6559,7 +6502,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -6574,7 +6517,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -6589,7 +6532,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1">
         <v>7</v>
@@ -6604,7 +6547,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -6619,7 +6562,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -6634,7 +6577,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -6649,7 +6592,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -6664,7 +6607,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -6679,7 +6622,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -6694,7 +6637,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -6751,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1">
         <v>729</v>
@@ -6772,7 +6715,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
@@ -6791,7 +6734,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1">
         <v>62</v>
@@ -6810,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1">
         <v>57</v>
@@ -6827,7 +6770,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <v>43</v>
@@ -6844,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1">
         <v>39</v>
@@ -6863,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1">
         <v>36</v>
@@ -6882,7 +6825,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1">
         <v>33</v>
@@ -6903,7 +6846,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -6922,7 +6865,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1">
         <v>28</v>
@@ -6941,7 +6884,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1">
         <v>23</v>
@@ -6958,7 +6901,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1">
         <v>21</v>
@@ -6975,7 +6918,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1">
         <v>18</v>
@@ -6992,7 +6935,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1">
         <v>18</v>
@@ -7011,7 +6954,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1">
         <v>17</v>
@@ -7028,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -7045,7 +6988,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -7064,7 +7007,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1">
         <v>9</v>
@@ -7083,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1">
         <v>8</v>
@@ -7100,7 +7043,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1">
         <v>8</v>
@@ -7119,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
@@ -7136,7 +7079,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -7153,7 +7096,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -7172,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -7189,7 +7132,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
@@ -7206,7 +7149,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -7223,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -7240,7 +7183,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -7259,7 +7202,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -7276,7 +7219,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -7293,7 +7236,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -7310,7 +7253,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -7327,7 +7270,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -7344,7 +7287,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -7361,7 +7304,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -7376,7 +7319,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -7391,7 +7334,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -7406,7 +7349,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -7421,7 +7364,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -7436,7 +7379,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -7451,7 +7394,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -7466,7 +7409,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -7481,7 +7424,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -7496,7 +7439,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -7553,7 +7496,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1">
         <v>549</v>
@@ -7574,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1">
         <v>53</v>
@@ -7593,7 +7536,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1">
         <v>43</v>
@@ -7612,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1">
         <v>36</v>
@@ -7631,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>27</v>
@@ -7650,7 +7593,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1">
         <v>24</v>
@@ -7667,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1">
         <v>23</v>
@@ -7684,7 +7627,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -7705,7 +7648,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1">
         <v>18</v>
@@ -7722,7 +7665,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -7741,7 +7684,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -7758,7 +7701,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
         <v>15</v>
@@ -7777,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -7796,7 +7739,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1">
         <v>9</v>
@@ -7815,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
@@ -7832,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -7851,7 +7794,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
@@ -7868,7 +7811,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -7885,7 +7828,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
@@ -7902,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -7921,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -7938,7 +7881,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -7955,7 +7898,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -7972,7 +7915,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -7989,7 +7932,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8008,7 +7951,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -8027,7 +7970,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -8044,7 +7987,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -8063,7 +8006,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -8080,7 +8023,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -8097,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -8114,7 +8057,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -8133,7 +8076,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -8150,7 +8093,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -8167,7 +8110,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -8182,7 +8125,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -8197,7 +8140,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -8212,7 +8155,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -8227,7 +8170,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -8242,7 +8185,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -8257,7 +8200,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
@@ -8314,7 +8257,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>549</v>
@@ -8335,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1">
         <v>53</v>
@@ -8354,7 +8297,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>43</v>
@@ -8373,7 +8316,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1">
         <v>26</v>
@@ -8392,7 +8335,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -8409,7 +8352,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>24</v>
@@ -8426,7 +8369,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1">
         <v>15</v>
@@ -8445,7 +8388,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1">
         <v>27</v>
@@ -8464,7 +8407,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1">
         <v>15</v>
@@ -8483,7 +8426,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -8500,7 +8443,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1">
         <v>13</v>
@@ -8517,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -8536,7 +8479,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1">
         <v>9</v>
@@ -8553,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1">
         <v>9</v>
@@ -8570,7 +8513,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -8589,7 +8532,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -8606,7 +8549,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1">
         <v>7</v>
@@ -8623,7 +8566,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -8640,7 +8583,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -8657,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -8674,7 +8617,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -8693,7 +8636,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -8712,7 +8655,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -8729,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -8746,7 +8689,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -8763,7 +8706,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -8780,7 +8723,7 @@
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -8797,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -8814,7 +8757,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -8831,7 +8774,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -8850,7 +8793,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -8867,7 +8810,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -8886,7 +8829,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -8901,7 +8844,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -8916,7 +8859,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -8931,7 +8874,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -8946,7 +8889,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -8961,7 +8904,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -8978,8 +8921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C47" sqref="C2:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9018,7 +8961,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
@@ -9037,7 +8980,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>22</v>
@@ -9054,7 +8997,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>9</v>
@@ -9071,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -9090,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -9107,7 +9050,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>32</v>
@@ -9128,7 +9071,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -9145,7 +9088,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -9162,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -9181,7 +9124,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -9200,7 +9143,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -9217,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -9234,7 +9177,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -9253,7 +9196,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1">
         <v>444</v>
@@ -9274,7 +9217,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
@@ -9290,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
@@ -9306,7 +9249,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -9322,7 +9265,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
@@ -9338,7 +9281,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -9354,7 +9297,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -9370,7 +9313,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -9386,7 +9329,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -9402,7 +9345,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
@@ -9416,7 +9359,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -9434,7 +9377,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
@@ -9452,7 +9395,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1">
         <v>16</v>
@@ -9470,7 +9413,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -9486,7 +9429,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
@@ -9504,7 +9447,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -9521,7 +9464,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -9538,7 +9481,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -9553,7 +9496,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -9570,7 +9513,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -9587,7 +9530,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -9604,7 +9547,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1">
         <v>27</v>
@@ -9619,7 +9562,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -9634,7 +9577,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -9649,7 +9592,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -9664,7 +9607,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -9679,10 +9622,9 @@
         <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1">
         <v>4</v>
       </c>
       <c r="F41" s="2"/>
@@ -9694,10 +9636,9 @@
         <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1">
+        <v>90</v>
+      </c>
+      <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="F42" s="2"/>
@@ -9709,7 +9650,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -9724,10 +9665,9 @@
         <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1">
+        <v>90</v>
+      </c>
+      <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="2"/>
@@ -9739,10 +9679,9 @@
         <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1">
+        <v>90</v>
+      </c>
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="2"/>
@@ -9754,10 +9693,9 @@
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="2"/>
@@ -9769,10 +9707,9 @@
         <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="2"/>
@@ -9820,7 +9757,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1">
         <v>4903</v>
@@ -9840,7 +9777,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1">
         <v>428</v>
@@ -9858,7 +9795,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1">
         <v>354</v>
@@ -9876,7 +9813,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
         <v>278</v>
@@ -9896,7 +9833,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1">
         <v>277</v>
@@ -9914,7 +9851,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -9932,7 +9869,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>182</v>
@@ -9950,7 +9887,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1">
         <v>162</v>
@@ -9968,7 +9905,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1">
         <v>158</v>
@@ -9986,7 +9923,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1">
         <v>142</v>
@@ -10006,7 +9943,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1">
         <v>129</v>
@@ -10024,7 +9961,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1">
         <v>114</v>
@@ -10044,7 +9981,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1">
         <v>112</v>
@@ -10064,7 +10001,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1">
         <v>101</v>
@@ -10080,7 +10017,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
@@ -10098,7 +10035,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1">
         <v>70</v>
@@ -10114,7 +10051,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1">
         <v>65</v>
@@ -10132,7 +10069,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1">
         <v>63</v>
@@ -10148,7 +10085,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1">
         <v>46</v>
@@ -10168,7 +10105,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1">
         <v>44</v>
@@ -10186,7 +10123,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1">
         <v>41</v>
@@ -10204,7 +10141,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1">
         <v>35</v>
@@ -10222,7 +10159,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1">
         <v>31</v>
@@ -10238,7 +10175,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1">
         <v>26</v>
@@ -10254,7 +10191,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1">
         <v>19</v>
@@ -10270,7 +10207,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1">
         <v>17</v>
@@ -10286,7 +10223,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1">
         <v>14</v>
@@ -10304,7 +10241,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1">
         <v>14</v>
@@ -10320,7 +10257,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1">
         <v>12</v>
@@ -10338,7 +10275,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -10354,7 +10291,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1">
         <v>9</v>
@@ -10370,7 +10307,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -10386,7 +10323,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -10402,7 +10339,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -10418,7 +10355,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -10434,7 +10371,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -10450,7 +10387,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -10466,7 +10403,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -10480,7 +10417,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1">
         <v>11</v>
@@ -10496,7 +10433,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D41" s="1">
         <v>14</v>
@@ -10512,7 +10449,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
@@ -10526,7 +10463,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -10540,7 +10477,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -10554,7 +10491,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -10568,7 +10505,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -10582,7 +10519,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
@@ -10598,7 +10535,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -10614,7 +10551,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -10628,7 +10565,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -10642,7 +10579,7 @@
         <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -10658,7 +10595,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -10676,7 +10613,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -10686,13 +10623,13 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -10708,7 +10645,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -10719,10 +10656,10 @@
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -10733,10 +10670,10 @@
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -10750,7 +10687,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -10761,10 +10698,10 @@
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -11421,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
@@ -11438,7 +11375,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -11453,7 +11390,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -11468,7 +11405,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -11483,7 +11420,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="1">
@@ -11498,7 +11435,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -11515,7 +11452,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -11530,7 +11467,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1"/>
       <c r="G9" s="1">
@@ -11545,7 +11482,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1"/>
       <c r="G10" s="1">
@@ -11560,7 +11497,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -11575,7 +11512,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>17</v>
@@ -11592,7 +11529,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1"/>
       <c r="G13" s="1">
@@ -11607,7 +11544,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -11622,7 +11559,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -11637,7 +11574,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -11654,7 +11591,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1"/>
       <c r="G17" s="1">
@@ -11669,7 +11606,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>270</v>
@@ -11686,7 +11623,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -11701,7 +11638,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" s="1">
@@ -11716,7 +11653,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" s="1">
@@ -11731,7 +11668,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -11746,7 +11683,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1"/>
       <c r="G23" s="1">
@@ -11761,7 +11698,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1"/>
       <c r="G24" s="1">
@@ -11774,7 +11711,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -11787,7 +11724,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -11800,7 +11737,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -11815,7 +11752,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -11830,7 +11767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -11867,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1">
         <v>4586</v>
@@ -11887,7 +11824,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1">
         <v>428</v>
@@ -11905,7 +11842,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
         <v>311</v>
@@ -11923,7 +11860,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1">
         <v>278</v>
@@ -11943,7 +11880,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>277</v>
@@ -11959,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -11977,7 +11914,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1">
         <v>165</v>
@@ -11995,7 +11932,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
         <v>162</v>
@@ -12013,7 +11950,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>145</v>
@@ -12031,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1">
         <v>142</v>
@@ -12051,7 +11988,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1">
         <v>129</v>
@@ -12069,7 +12006,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1">
         <v>111</v>
@@ -12089,7 +12026,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1">
         <v>101</v>
@@ -12109,7 +12046,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1">
         <v>101</v>
@@ -12125,7 +12062,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
@@ -12143,7 +12080,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1">
         <v>65</v>
@@ -12161,7 +12098,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1">
         <v>56</v>
@@ -12177,7 +12114,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1">
         <v>55</v>
@@ -12193,7 +12130,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
@@ -12211,7 +12148,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1">
         <v>43</v>
@@ -12229,7 +12166,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1">
         <v>39</v>
@@ -12247,7 +12184,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1">
         <v>35</v>
@@ -12265,7 +12202,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1">
         <v>27</v>
@@ -12281,7 +12218,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1">
         <v>26</v>
@@ -12297,7 +12234,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1">
         <v>16</v>
@@ -12313,7 +12250,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1">
         <v>14</v>
@@ -12331,7 +12268,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1">
         <v>14</v>
@@ -12347,7 +12284,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1">
         <v>12</v>
@@ -12365,7 +12302,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>12</v>
@@ -12381,7 +12318,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -12397,7 +12334,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -12413,7 +12350,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
@@ -12429,7 +12366,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -12445,7 +12382,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -12461,7 +12398,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -12477,7 +12414,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -12493,7 +12430,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -12509,7 +12446,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -12523,7 +12460,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1">
         <v>11</v>
@@ -12539,7 +12476,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1">
         <v>14</v>
@@ -12555,7 +12492,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
@@ -12569,7 +12506,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -12583,7 +12520,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -12597,7 +12534,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -12611,7 +12548,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -12625,7 +12562,7 @@
         <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1">
         <v>7</v>
@@ -12641,7 +12578,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -12657,7 +12594,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -12671,7 +12608,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -12685,7 +12622,7 @@
         <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -12701,7 +12638,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -12717,7 +12654,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -12727,13 +12664,13 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -12749,7 +12686,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -12760,10 +12697,10 @@
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -12774,10 +12711,10 @@
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -12792,7 +12729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -12834,7 +12771,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
         <v>3554</v>
@@ -12854,7 +12791,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1">
         <v>296</v>
@@ -12872,7 +12809,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>277</v>
@@ -12890,7 +12827,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
         <v>221</v>
@@ -12906,7 +12843,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1">
         <v>206</v>
@@ -12926,7 +12863,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1">
         <v>152</v>
@@ -12944,7 +12881,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1">
         <v>147</v>
@@ -12962,7 +12899,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>130</v>
@@ -12980,7 +12917,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1">
         <v>111</v>
@@ -13000,7 +12937,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1">
         <v>109</v>
@@ -13018,7 +12955,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1">
         <v>108</v>
@@ -13038,7 +12975,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1">
         <v>99</v>
@@ -13056,7 +12993,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1">
         <v>96</v>
@@ -13076,7 +13013,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
         <v>84</v>
@@ -13092,7 +13029,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1">
         <v>58</v>
@@ -13110,7 +13047,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1">
         <v>56</v>
@@ -13126,7 +13063,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1">
         <v>55</v>
@@ -13142,7 +13079,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1">
         <v>48</v>
@@ -13160,7 +13097,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
@@ -13178,7 +13115,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1">
         <v>39</v>
@@ -13196,7 +13133,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1">
         <v>38</v>
@@ -13214,7 +13151,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
         <v>27</v>
@@ -13230,7 +13167,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>27</v>
@@ -13248,7 +13185,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -13264,7 +13201,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1">
         <v>16</v>
@@ -13280,7 +13217,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>13</v>
@@ -13296,7 +13233,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1">
         <v>12</v>
@@ -13312,7 +13249,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -13328,7 +13265,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
@@ -13346,7 +13283,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1">
         <v>9</v>
@@ -13362,7 +13299,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -13378,7 +13315,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
@@ -13394,7 +13331,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -13410,7 +13347,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -13426,7 +13363,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -13442,7 +13379,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -13458,7 +13395,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -13472,7 +13409,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D39" s="1">
         <v>7</v>
@@ -13488,7 +13425,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
         <v>14</v>
@@ -13504,7 +13441,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -13518,7 +13455,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1">
         <v>7</v>
@@ -13532,7 +13469,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -13546,7 +13483,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -13560,7 +13497,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -13574,7 +13511,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
@@ -13590,7 +13527,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -13606,7 +13543,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -13620,7 +13557,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -13634,7 +13571,7 @@
         <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -13650,7 +13587,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -13666,7 +13603,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -13682,7 +13619,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -13693,10 +13630,10 @@
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -13707,10 +13644,10 @@
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -13762,7 +13699,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
         <v>3554</v>
@@ -13782,7 +13719,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
         <v>277</v>
@@ -13800,7 +13737,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <v>296</v>
@@ -13818,7 +13755,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>206</v>
@@ -13838,7 +13775,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
         <v>147</v>
@@ -13854,7 +13791,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
         <v>221</v>
@@ -13870,7 +13807,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
         <v>130</v>
@@ -13888,7 +13825,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1">
         <v>111</v>
@@ -13908,7 +13845,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>152</v>
@@ -13926,7 +13863,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>108</v>
@@ -13942,7 +13879,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
         <v>84</v>
@@ -13958,7 +13895,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1">
         <v>96</v>
@@ -13978,7 +13915,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1">
         <v>109</v>
@@ -13996,7 +13933,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
         <v>99</v>
@@ -14014,7 +13951,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1">
         <v>58</v>
@@ -14032,7 +13969,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
         <v>56</v>
@@ -14048,7 +13985,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
         <v>43</v>
@@ -14068,7 +14005,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1">
         <v>39</v>
@@ -14084,7 +14021,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1">
         <v>55</v>
@@ -14100,7 +14037,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1">
         <v>27</v>
@@ -14116,7 +14053,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1">
         <v>38</v>
@@ -14134,7 +14071,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
         <v>48</v>
@@ -14152,7 +14089,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1">
         <v>24</v>
@@ -14168,7 +14105,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1">
         <v>27</v>
@@ -14184,7 +14121,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1">
         <v>16</v>
@@ -14200,7 +14137,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1">
         <v>10</v>
@@ -14216,7 +14153,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1">
         <v>9</v>
@@ -14232,7 +14169,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1">
         <v>12</v>
@@ -14248,7 +14185,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
@@ -14264,7 +14201,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1">
         <v>7</v>
@@ -14280,7 +14217,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -14296,7 +14233,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>13</v>
@@ -14312,7 +14249,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -14328,7 +14265,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -14344,7 +14281,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -14360,7 +14297,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -14376,7 +14313,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -14392,7 +14329,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -14406,7 +14343,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1">
         <v>7</v>
@@ -14422,7 +14359,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1">
         <v>14</v>
@@ -14438,7 +14375,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
@@ -14452,7 +14389,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1">
         <v>7</v>
@@ -14466,7 +14403,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1">
         <v>2</v>
@@ -14480,7 +14417,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -14494,7 +14431,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
@@ -14508,7 +14445,7 @@
         <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -14522,7 +14459,7 @@
         <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -14538,7 +14475,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1">
         <v>4</v>
@@ -14554,7 +14491,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -14565,10 +14502,10 @@
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -14582,7 +14519,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -14598,7 +14535,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -14614,7 +14551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34:C53"/>
     </sheetView>
   </sheetViews>
@@ -14651,7 +14588,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>3554</v>
@@ -14671,7 +14608,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1">
         <v>296</v>
@@ -14689,7 +14626,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>241</v>
@@ -14707,7 +14644,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>221</v>
@@ -14723,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>206</v>
@@ -14743,7 +14680,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1">
         <v>152</v>
@@ -14759,7 +14696,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>147</v>
@@ -14777,7 +14714,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1">
         <v>121</v>
@@ -14793,7 +14730,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1">
         <v>109</v>
@@ -14811,7 +14748,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
         <v>108</v>
@@ -14827,7 +14764,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1">
         <v>99</v>
@@ -14845,7 +14782,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
         <v>91</v>
@@ -14865,7 +14802,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1">
         <v>82</v>
@@ -14881,7 +14818,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
         <v>80</v>
@@ -14901,7 +14838,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
         <v>58</v>
@@ -14919,7 +14856,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
         <v>56</v>
@@ -14935,7 +14872,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
         <v>48</v>
@@ -14953,7 +14890,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1">
         <v>44</v>
@@ -14969,7 +14906,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
@@ -14987,7 +14924,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1">
         <v>37</v>
@@ -15005,7 +14942,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1">
         <v>36</v>
@@ -15021,7 +14958,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1">
         <v>27</v>
@@ -15037,7 +14974,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>25</v>
@@ -15053,7 +14990,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1">
         <v>24</v>
@@ -15069,7 +15006,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>16</v>
@@ -15085,7 +15022,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>13</v>
@@ -15101,7 +15038,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1">
         <v>12</v>
@@ -15117,7 +15054,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1">
         <v>9</v>
@@ -15133,7 +15070,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1">
         <v>9</v>
@@ -15149,7 +15086,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -15165,7 +15102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1">
         <v>8</v>
@@ -15181,7 +15118,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
@@ -15197,7 +15134,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1">
         <v>6</v>
@@ -15213,7 +15150,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -15229,7 +15166,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -15245,7 +15182,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -15261,7 +15198,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -15275,7 +15212,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1">
         <v>7</v>
@@ -15291,7 +15228,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1">
         <v>14</v>
@@ -15307,7 +15244,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -15321,7 +15258,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1">
         <v>7</v>
@@ -15335,7 +15272,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -15349,7 +15286,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -15363,7 +15300,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -15377,7 +15314,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
@@ -15393,7 +15330,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -15409,7 +15346,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -15423,7 +15360,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -15437,7 +15374,7 @@
         <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -15453,7 +15390,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -15469,7 +15406,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -15485,7 +15422,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -15499,10 +15436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15510,7 +15447,7 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15529,11 +15466,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -15552,11 +15486,8 @@
       <c r="F2" s="1">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -15573,11 +15504,8 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -15594,11 +15522,8 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -15615,11 +15540,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -15634,11 +15556,8 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -15653,11 +15572,8 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -15674,11 +15590,8 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -15693,11 +15606,8 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -15712,11 +15622,8 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -15735,11 +15642,8 @@
       <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -15754,11 +15658,8 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -15773,11 +15674,8 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -15794,11 +15692,8 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -15817,11 +15712,8 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -15838,11 +15730,8 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -15857,11 +15746,8 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -15876,11 +15762,8 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -15897,11 +15780,8 @@
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -15916,11 +15796,8 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -15937,11 +15814,8 @@
         <v>1</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -15958,11 +15832,8 @@
         <v>1</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -15977,11 +15848,8 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -15996,11 +15864,8 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -16015,11 +15880,8 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -16034,11 +15896,8 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -16053,11 +15912,8 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -16072,11 +15928,8 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -16091,11 +15944,8 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -16110,11 +15960,8 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -16129,11 +15976,8 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -16148,11 +15992,8 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -16167,11 +16008,8 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -16186,11 +16024,8 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -16205,11 +16040,8 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -16224,11 +16056,8 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -16243,11 +16072,8 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -16262,11 +16088,8 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>46</v>
@@ -16281,11 +16104,8 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>47</v>
@@ -16300,11 +16120,8 @@
       <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="G40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -16317,11 +16134,8 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>49</v>
@@ -16334,11 +16148,8 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>50</v>
@@ -16351,11 +16162,8 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>51</v>
@@ -16368,11 +16176,8 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>52</v>
@@ -16385,11 +16190,8 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>53</v>
@@ -16402,11 +16204,8 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -16421,11 +16220,8 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -16440,11 +16236,8 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -16457,11 +16250,8 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -16474,11 +16264,8 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -16493,11 +16280,8 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -16512,11 +16296,8 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -16530,9 +16311,6 @@
         <v>4</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="G53" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16543,8 +16321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8975A-CCBD-5A45-8039-C4BCF1427AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57165F0-A1F0-504C-B78F-9E623AB2C314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" firstSheet="11" activeTab="18" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId1"/>
-    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId2"/>
-    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId3"/>
-    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId4"/>
-    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId5"/>
-    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId6"/>
-    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId7"/>
-    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId8"/>
-    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId9"/>
-    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId10"/>
-    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId11"/>
-    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId12"/>
-    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId13"/>
-    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId14"/>
-    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId15"/>
-    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId16"/>
-    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId17"/>
-    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId18"/>
-    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId19"/>
-    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId20"/>
-    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId21"/>
+    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId1"/>
+    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId2"/>
+    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId3"/>
+    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId4"/>
+    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId5"/>
+    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId6"/>
+    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId7"/>
+    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId8"/>
+    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId9"/>
+    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId10"/>
+    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId11"/>
+    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId12"/>
+    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId13"/>
+    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId14"/>
+    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId15"/>
+    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId16"/>
+    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId17"/>
+    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId18"/>
+    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId19"/>
+    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId20"/>
+    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId21"/>
+    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="102">
   <si>
     <t>Province/State</t>
   </si>
@@ -339,6 +340,18 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>1/31/2020 14:00</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -710,10 +723,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1">
         <v>5806</v>
@@ -756,7 +769,7 @@
         <v>204</v>
       </c>
       <c r="F2" s="1">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -767,14 +780,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -785,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
@@ -803,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>352</v>
@@ -823,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>332</v>
@@ -841,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1">
         <v>240</v>
@@ -859,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1">
         <v>237</v>
@@ -877,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
@@ -895,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
@@ -913,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1">
         <v>177</v>
@@ -933,54 +946,54 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1">
         <v>168</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -991,10 +1004,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1007,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1">
         <v>87</v>
@@ -1019,20 +1032,18 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1043,28 +1054,32 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1">
-        <v>87</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1075,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1">
         <v>59</v>
@@ -1093,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1113,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1">
@@ -1131,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1">
         <v>39</v>
@@ -1149,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1">
         <v>32</v>
@@ -1159,87 +1174,87 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1">
         <v>29</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1249,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1">
         <v>14</v>
@@ -1267,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -1283,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1299,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -1315,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1331,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1340,65 +1355,61 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1406,128 +1417,134 @@
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="1">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1537,30 +1554,32 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1568,44 +1587,38 @@
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1615,32 +1628,32 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1648,10 +1661,10 @@
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1660,15 +1673,17 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1676,10 +1691,10 @@
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1690,10 +1705,10 @@
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1704,15 +1719,57 @@
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,6 +1777,890 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2714</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>173</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>106</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -2582,7 +3523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55474FAD-47BE-A446-80F0-0652C8024DDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -3397,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D109F2-335E-B842-B29F-32988756D99B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -4194,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422DC1B8-61A7-9F4B-AD6D-16910AF9DAD2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -5038,7 +5979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14E1D-A573-C549-91F0-85D6781C45FF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -5846,7 +6787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF828E8-2C21-3145-94D4-8BD2B2FC2D5C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -6650,7 +7591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C6ACE-A5E7-894A-9E03-A4D184028106}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -7452,7 +8393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996331F-AA5D-7040-8F17-DE10C3DA49A5}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -8213,7 +9154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459AF105-9E29-6E4D-801B-CA0BFB7BA013}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -8917,11 +9858,1021 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5806</v>
+      </c>
+      <c r="E2" s="1">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1">
+        <v>537</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>393</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1">
+        <v>206</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1">
+        <v>178</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>121</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -9719,1000 +11670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
-  <dimension ref="A1:F59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4903</v>
-      </c>
-      <c r="E2" s="1">
-        <v>162</v>
-      </c>
-      <c r="F2" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="1">
-        <v>428</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1">
-        <v>354</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1">
-        <v>278</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1">
-        <v>277</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1">
-        <v>182</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1">
-        <v>162</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1">
-        <v>158</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1">
-        <v>142</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="1">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1">
-        <v>114</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="1">
-        <v>112</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="1">
-        <v>101</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="1">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="1">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1">
-        <v>63</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="1">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="1">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="1">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="1">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="1">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="1">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5045D7-534A-2941-A13E-3353E7C989D0}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -11314,7 +12272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -11764,6 +12722,999 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4903</v>
+      </c>
+      <c r="E2" s="1">
+        <v>162</v>
+      </c>
+      <c r="F2" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1">
+        <v>428</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1">
+        <v>354</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1">
+        <v>278</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>277</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1">
+        <v>162</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1">
+        <v>158</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -12725,7 +14676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -13658,7 +15609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB9813-8C08-1D4E-84D9-F0E88353F568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -14547,7 +16498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -15434,7 +17385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -16317,7 +18268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -17182,888 +19133,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
-  <dimension ref="A1:F53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2714</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>173</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>168</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>151</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>106</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>87</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>80</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>23</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57165F0-A1F0-504C-B78F-9E623AB2C314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3F611-3A83-5C4D-9564-59E38F0F1E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="10440" yWindow="2360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId1"/>
-    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId2"/>
-    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId3"/>
-    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId4"/>
-    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId5"/>
-    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId6"/>
-    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId7"/>
-    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId8"/>
-    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId9"/>
-    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId10"/>
-    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId11"/>
-    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId12"/>
-    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId13"/>
-    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId14"/>
-    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId15"/>
-    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId16"/>
-    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId17"/>
-    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId18"/>
-    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId19"/>
-    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId20"/>
-    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId21"/>
-    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId22"/>
+    <sheet name="2020-01-31-18-00" sheetId="23" r:id="rId1"/>
+    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId2"/>
+    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId3"/>
+    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId4"/>
+    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId5"/>
+    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId6"/>
+    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId7"/>
+    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId8"/>
+    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId9"/>
+    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId10"/>
+    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId11"/>
+    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId12"/>
+    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId13"/>
+    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId14"/>
+    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId15"/>
+    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId16"/>
+    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId17"/>
+    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId18"/>
+    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId19"/>
+    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId20"/>
+    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId21"/>
+    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId22"/>
+    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="104">
   <si>
     <t>Province/State</t>
   </si>
@@ -352,6 +353,12 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>1/31/2020 18:00</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
 </sst>
 </file>
@@ -723,14 +730,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -760,16 +770,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1">
-        <v>5806</v>
+        <v>7153</v>
       </c>
       <c r="E2" s="1">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="F2" s="1">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -780,14 +790,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -798,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>436</v>
@@ -816,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>352</v>
@@ -836,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>332</v>
@@ -854,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1">
         <v>240</v>
@@ -872,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1">
         <v>237</v>
@@ -890,10 +900,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
@@ -908,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1">
         <v>184</v>
@@ -926,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1">
         <v>177</v>
@@ -946,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1">
         <v>168</v>
@@ -964,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1">
         <v>139</v>
@@ -984,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1">
         <v>135</v>
@@ -1004,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1">
         <v>120</v>
@@ -1020,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1">
         <v>87</v>
@@ -1038,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1">
         <v>87</v>
@@ -1054,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1">
         <v>83</v>
@@ -1072,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1">
         <v>82</v>
@@ -1090,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1">
         <v>59</v>
@@ -1108,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1">
         <v>52</v>
@@ -1128,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1">
@@ -1146,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1">
@@ -1164,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1">
         <v>32</v>
@@ -1180,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1">
         <v>29</v>
@@ -1198,10 +1208,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1214,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1">
         <v>21</v>
@@ -1230,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
@@ -1248,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1">
         <v>17</v>
@@ -1264,15 +1274,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1">
         <v>14</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1282,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -1298,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -1314,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -1330,7 +1338,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1346,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1360,7 +1368,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1">
         <v>19</v>
@@ -1376,7 +1384,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1">
         <v>15</v>
@@ -1392,7 +1400,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" s="1">
         <v>13</v>
@@ -1406,7 +1414,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1">
         <v>11</v>
@@ -1420,7 +1428,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -1434,7 +1442,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -1450,10 +1458,10 @@
         <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D42" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1466,7 +1474,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1482,7 +1490,7 @@
         <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -1498,7 +1506,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -1514,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -1530,7 +1538,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -1544,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1560,7 +1568,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -1576,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -1590,7 +1598,7 @@
         <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -1604,7 +1612,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -1618,7 +1626,7 @@
         <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1634,7 +1642,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1650,7 +1658,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -1664,7 +1672,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1680,7 +1688,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1694,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1708,7 +1716,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1722,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -1736,7 +1744,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1750,7 +1758,7 @@
         <v>95</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1764,12 +1772,23 @@
         <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,6 +1796,873 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2714</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -2660,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -3523,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55474FAD-47BE-A446-80F0-0652C8024DDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -4338,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D109F2-335E-B842-B29F-32988756D99B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -5135,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422DC1B8-61A7-9F4B-AD6D-16910AF9DAD2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -5979,7 +6865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14E1D-A573-C549-91F0-85D6781C45FF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -6787,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF828E8-2C21-3145-94D4-8BD2B2FC2D5C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -7591,7 +8477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C6ACE-A5E7-894A-9E03-A4D184028106}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -8393,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996331F-AA5D-7040-8F17-DE10C3DA49A5}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -9154,7 +10040,1064 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5806</v>
+      </c>
+      <c r="E2" s="1">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>538</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1">
+        <v>436</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1">
+        <v>211</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1">
+        <v>184</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459AF105-9E29-6E4D-801B-CA0BFB7BA013}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -9858,1017 +11801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
-  <dimension ref="A1:F60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5806</v>
-      </c>
-      <c r="E2" s="1">
-        <v>204</v>
-      </c>
-      <c r="F2" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1">
-        <v>537</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="1">
-        <v>393</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="1">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="1">
-        <v>332</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="1">
-        <v>240</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="1">
-        <v>237</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="1">
-        <v>206</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="1">
-        <v>178</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="1">
-        <v>177</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="1">
-        <v>168</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="1">
-        <v>128</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="1">
-        <v>121</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1">
-        <v>101</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="1">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="1">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="1">
-        <v>76</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="1">
-        <v>87</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="1">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="1">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="1">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="1">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="1">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="1">
-        <v>20</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="1">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="1">
-        <v>15</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="1">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="1">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="1">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="1">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -11670,7 +12603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5045D7-534A-2941-A13E-3353E7C989D0}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -12272,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -12722,6 +13655,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5806</v>
+      </c>
+      <c r="E2" s="1">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1">
+        <v>537</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>393</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1">
+        <v>206</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1">
+        <v>178</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>121</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="1">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -13714,7 +15657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -14676,7 +16619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -15609,7 +17552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB9813-8C08-1D4E-84D9-F0E88353F568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -16498,7 +18441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -17385,7 +19328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -18266,871 +20209,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2714</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1">
-        <v>173</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="1">
-        <v>168</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="1">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1">
-        <v>132</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1">
-        <v>106</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1">
-        <v>95</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1">
-        <v>90</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="1">
-        <v>80</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="1">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="1">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="1">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="1">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="1">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="1">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="1">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="1">
-        <v>15</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="1">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3F611-3A83-5C4D-9564-59E38F0F1E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B161197-DD2E-0C4B-B9C4-AFCDE938DD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10440" yWindow="2360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-01-31-18-00" sheetId="23" r:id="rId1"/>
+    <sheet name="2020-01-31-19-00" sheetId="23" r:id="rId1"/>
     <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId2"/>
     <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId3"/>
     <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId4"/>
@@ -355,10 +355,10 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>1/31/2020 18:00</t>
+    <t>Spain</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>1/31/2020 19:00</t>
   </si>
 </sst>
 </file>
@@ -733,13 +733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1">
         <v>7153</v>
@@ -779,7 +779,7 @@
         <v>249</v>
       </c>
       <c r="F2" s="1">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -790,14 +790,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1">
         <v>537</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -808,14 +808,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1">
         <v>436</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>352</v>
@@ -846,14 +846,14 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>332</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>240</v>
@@ -874,40 +874,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
-        <v>237</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -918,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1">
         <v>184</v>
@@ -936,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1">
         <v>177</v>
@@ -956,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1">
         <v>168</v>
@@ -968,42 +970,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1014,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1">
         <v>120</v>
@@ -1024,126 +1026,126 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1">
         <v>59</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1">
-        <v>60</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1">
         <v>47</v>
@@ -1168,53 +1170,53 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1224,13 +1226,15 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1">
         <v>21</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1240,15 +1244,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1">
         <v>20</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1258,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1">
         <v>17</v>
@@ -1274,13 +1276,15 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1">
         <v>14</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1290,10 +1294,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1306,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -1322,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -1338,7 +1342,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1354,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1363,61 +1367,65 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="1">
-        <v>5</v>
-      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1425,134 +1433,128 @@
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1562,32 +1564,30 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1595,38 +1595,44 @@
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1636,32 +1642,32 @@
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1669,10 +1675,10 @@
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1681,17 +1687,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1699,10 +1703,10 @@
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1713,10 +1717,10 @@
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1727,13 +1731,13 @@
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1741,10 +1745,10 @@
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1755,13 +1759,13 @@
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1769,25 +1773,27 @@
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+      <c r="D64" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B161197-DD2E-0C4B-B9C4-AFCDE938DD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878FD0FB-002D-6C4A-A18B-2E3BAD1B63A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2360" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="4160" yWindow="980" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-01-31-19-00" sheetId="23" r:id="rId1"/>
-    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId2"/>
-    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId3"/>
-    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId4"/>
-    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId5"/>
-    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId6"/>
-    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId7"/>
-    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId8"/>
-    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId9"/>
-    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId10"/>
-    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId11"/>
-    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId12"/>
-    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId13"/>
-    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId14"/>
-    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId15"/>
-    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId16"/>
-    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId17"/>
-    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId18"/>
-    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId19"/>
-    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId20"/>
-    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId21"/>
-    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId22"/>
-    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId23"/>
+    <sheet name="2020-02-01-10-00" sheetId="24" r:id="rId1"/>
+    <sheet name="2020-01-31-19-00" sheetId="23" r:id="rId2"/>
+    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId3"/>
+    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId4"/>
+    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId5"/>
+    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId6"/>
+    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId7"/>
+    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId8"/>
+    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId9"/>
+    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId10"/>
+    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId11"/>
+    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId12"/>
+    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId13"/>
+    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId14"/>
+    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId15"/>
+    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId16"/>
+    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId17"/>
+    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId18"/>
+    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId19"/>
+    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId20"/>
+    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId21"/>
+    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId22"/>
+    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId23"/>
+    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="106">
   <si>
     <t>Province/State</t>
   </si>
@@ -360,6 +361,12 @@
   <si>
     <t>1/31/2020 19:00</t>
   </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>2/01/2020 10:00</t>
+  </si>
 </sst>
 </file>
 
@@ -412,11 +419,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,19 +739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346F2AB-E5EE-2B46-973E-D7558A9055D0}">
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,15 +771,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>7153</v>
@@ -779,57 +788,57 @@
         <v>249</v>
       </c>
       <c r="F2" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="1">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D4" s="1">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>103</v>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="1">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -838,208 +847,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D6" s="1">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
+      <c r="C7" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D7" s="1">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1">
+        <v>286</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="1">
-        <v>238</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D9" s="1">
-        <v>237</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="1">
-        <v>184</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="1">
-        <v>177</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
+      <c r="C12" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D13" s="1">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="1">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D15" s="1">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D16" s="1">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1049,11 +1057,11 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D17" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1">
@@ -1062,18 +1070,20 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>103</v>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D18" s="1">
-        <v>87</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1083,52 +1093,54 @@
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="1">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D20" s="1">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D21" s="1">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1137,11 +1149,11 @@
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D22" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1157,8 +1169,8 @@
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="1">
         <v>47</v>
@@ -1170,32 +1182,32 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D24" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D25" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1207,8 +1219,8 @@
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D26" s="1">
         <v>29</v>
@@ -1225,16 +1237,14 @@
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1243,14 +1253,16 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>103</v>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1259,11 +1271,11 @@
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
+      <c r="C29" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D29" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1275,11 +1287,11 @@
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D30" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1">
@@ -1293,8 +1305,8 @@
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>103</v>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="1">
         <v>13</v>
@@ -1309,8 +1321,8 @@
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -1325,11 +1337,11 @@
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>103</v>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D33" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1341,8 +1353,8 @@
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
@@ -1357,8 +1369,8 @@
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1373,8 +1385,8 @@
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
+      <c r="C36" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1389,8 +1401,8 @@
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>103</v>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -1405,8 +1417,8 @@
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -1421,8 +1433,8 @@
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1435,8 +1447,8 @@
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>103</v>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D40" s="1">
         <v>17</v>
@@ -1451,8 +1463,8 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D41" s="1">
         <v>19</v>
@@ -1467,11 +1479,11 @@
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D42" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1481,11 +1493,11 @@
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>103</v>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D43" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1495,22 +1507,24 @@
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
+      <c r="C44" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>103</v>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D45" s="1">
         <v>6</v>
@@ -1523,8 +1537,8 @@
       <c r="B46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>103</v>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1537,8 +1551,8 @@
       <c r="B47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>103</v>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D47" s="1">
         <v>8</v>
@@ -1553,11 +1567,11 @@
       <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>103</v>
+      <c r="C48" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1569,8 +1583,8 @@
       <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>103</v>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1583,8 +1597,8 @@
       <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>103</v>
+      <c r="C50" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1597,14 +1611,16 @@
       <c r="B51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>103</v>
+      <c r="C51" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -1613,8 +1629,8 @@
       <c r="B52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>103</v>
+      <c r="C52" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -1631,11 +1647,11 @@
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
+      <c r="C53" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1647,8 +1663,8 @@
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1658,30 +1674,32 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D55" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1689,13 +1707,13 @@
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1703,13 +1721,13 @@
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1717,10 +1735,10 @@
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1731,13 +1749,13 @@
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1745,13 +1763,13 @@
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1759,13 +1777,13 @@
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1773,13 +1791,13 @@
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1787,14 +1805,29 @@
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="1">
         <v>2</v>
       </c>
+      <c r="E65" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,6 +1835,889 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3554</v>
+      </c>
+      <c r="E2" s="1">
+        <v>125</v>
+      </c>
+      <c r="F2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1">
+        <v>106</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -2668,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -3552,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -4415,7 +5331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55474FAD-47BE-A446-80F0-0652C8024DDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -5230,7 +6146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D109F2-335E-B842-B29F-32988756D99B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -6027,7 +6943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422DC1B8-61A7-9F4B-AD6D-16910AF9DAD2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -6871,7 +7787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14E1D-A573-C549-91F0-85D6781C45FF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -7679,7 +8595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF828E8-2C21-3145-94D4-8BD2B2FC2D5C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -8483,7 +9399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C6ACE-A5E7-894A-9E03-A4D184028106}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -9285,7 +10201,1080 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7153</v>
+      </c>
+      <c r="E2" s="1">
+        <v>249</v>
+      </c>
+      <c r="F2" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>537</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1">
+        <v>436</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="1">
+        <v>238</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1">
+        <v>237</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1">
+        <v>184</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="1">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996331F-AA5D-7040-8F17-DE10C3DA49A5}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -10046,1064 +12035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5806</v>
-      </c>
-      <c r="E2" s="1">
-        <v>204</v>
-      </c>
-      <c r="F2" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="1">
-        <v>538</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="1">
-        <v>436</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="1">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="1">
-        <v>332</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1">
-        <v>240</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="1">
-        <v>237</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="1">
-        <v>211</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="1">
-        <v>184</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="1">
-        <v>177</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1">
-        <v>168</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="1">
-        <v>139</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="1">
-        <v>135</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="1">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1">
-        <v>87</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="1">
-        <v>87</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="1">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="1">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="1">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="1">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="1">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="1">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="1">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="1">
-        <v>19</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="1">
-        <v>15</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459AF105-9E29-6E4D-801B-CA0BFB7BA013}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -11807,7 +12739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -12609,7 +13541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5045D7-534A-2941-A13E-3353E7C989D0}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -13211,7 +14143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -13661,6 +14593,1063 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5806</v>
+      </c>
+      <c r="E2" s="1">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1">
+        <v>538</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1">
+        <v>436</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1">
+        <v>237</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1">
+        <v>211</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1">
+        <v>184</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1">
+        <v>135</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -14670,7 +16659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -15663,7 +17652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -16625,7 +18614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -17558,7 +19547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB9813-8C08-1D4E-84D9-F0E88353F568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -18447,7 +20436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -19332,887 +21321,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
-  <dimension ref="A1:F53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3554</v>
-      </c>
-      <c r="E2" s="1">
-        <v>125</v>
-      </c>
-      <c r="F2" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1">
-        <v>173</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1">
-        <v>168</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1">
-        <v>132</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1">
-        <v>109</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1">
-        <v>106</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1">
-        <v>95</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1">
-        <v>91</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="1">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="1">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="1">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1">
-        <v>15</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="1">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,36 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878FD0FB-002D-6C4A-A18B-2E3BAD1B63A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B1633-F2F0-F64B-AE0F-4C7BE0BF0D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="980" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="6900" yWindow="1780" windowWidth="32760" windowHeight="19260" activeTab="1" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-02-01-10-00" sheetId="24" r:id="rId1"/>
-    <sheet name="2020-01-31-19-00" sheetId="23" r:id="rId2"/>
-    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId3"/>
-    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId4"/>
-    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId5"/>
-    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId6"/>
-    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId7"/>
-    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId8"/>
-    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId9"/>
-    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId10"/>
-    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId11"/>
-    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId12"/>
-    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId13"/>
-    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId14"/>
-    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId15"/>
-    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId16"/>
-    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId17"/>
-    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId18"/>
-    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId19"/>
-    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId20"/>
-    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId21"/>
-    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId22"/>
-    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId23"/>
-    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId24"/>
+    <sheet name="2020-02-01-18-00" sheetId="25" r:id="rId1"/>
+    <sheet name="2020-02-01-10-00" sheetId="24" r:id="rId2"/>
+    <sheet name="2020-01-31-19-00" sheetId="23" r:id="rId3"/>
+    <sheet name="2020-01-31-14-00" sheetId="22" r:id="rId4"/>
+    <sheet name="2020-01-30-21-30" sheetId="21" r:id="rId5"/>
+    <sheet name="2020-01-30-11-00" sheetId="20" r:id="rId6"/>
+    <sheet name="2020-01-29-21-00" sheetId="19" r:id="rId7"/>
+    <sheet name="2020-01-29-14-30" sheetId="18" r:id="rId8"/>
+    <sheet name="2020-01-29-13-00" sheetId="17" r:id="rId9"/>
+    <sheet name="2020-01-28-23-00" sheetId="16" r:id="rId10"/>
+    <sheet name="2020-01-28-18-00" sheetId="15" r:id="rId11"/>
+    <sheet name="2020-01-28-13-00" sheetId="14" r:id="rId12"/>
+    <sheet name="2020-01-27-20-30" sheetId="1" r:id="rId13"/>
+    <sheet name="2020-01-27-19-00" sheetId="2" r:id="rId14"/>
+    <sheet name="2020-01-27-09-00" sheetId="3" r:id="rId15"/>
+    <sheet name="2020-01-26-23-00" sheetId="4" r:id="rId16"/>
+    <sheet name="2020-01-26-11-00" sheetId="5" r:id="rId17"/>
+    <sheet name="2020-01-25-22-00" sheetId="6" r:id="rId18"/>
+    <sheet name="2020-01-25-12-00" sheetId="7" r:id="rId19"/>
+    <sheet name="2020-01-25-00-00" sheetId="8" r:id="rId20"/>
+    <sheet name="2020-01-24-12-00" sheetId="9" r:id="rId21"/>
+    <sheet name="2020-01-24-00-00" sheetId="10" r:id="rId22"/>
+    <sheet name="2020-01-23-12-00" sheetId="11" r:id="rId23"/>
+    <sheet name="2020-01-22-12-00" sheetId="12" r:id="rId24"/>
+    <sheet name="2020-01-22-00-00" sheetId="13" r:id="rId25"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020-02-01-10-00'!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020-02-01-18-00'!$A$1:$G$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="113">
   <si>
     <t>Province/State</t>
   </si>
@@ -366,6 +371,27 @@
   </si>
   <si>
     <t>2/01/2020 10:00</t>
+  </si>
+  <si>
+    <t>2/01/2020 18:00</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Los Angeles, Orange, Santa Clara</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
   </si>
 </sst>
 </file>
@@ -739,19 +765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346F2AB-E5EE-2B46-973E-D7558A9055D0}">
-  <dimension ref="A1:H65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F26623-7B35-924B-8FDE-4D43C4428BD9}">
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +797,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,19 +809,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
-        <v>7153</v>
+        <v>9074</v>
       </c>
       <c r="E2" s="1">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="F2" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -799,17 +829,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1">
         <v>599</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,17 +849,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
         <v>535</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1">
         <v>422</v>
@@ -847,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -855,17 +889,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
         <v>389</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -873,17 +909,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1">
         <v>297</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,18 +929,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
         <v>286</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -910,10 +949,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -922,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -930,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1">
         <v>207</v>
@@ -942,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -950,17 +989,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1">
         <v>206</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -968,17 +1009,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1">
         <v>202</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -986,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1">
         <v>169</v>
@@ -998,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1">
         <v>168</v>
@@ -1018,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1026,15 +1069,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1">
         <v>144</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1042,15 +1089,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1">
         <v>101</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1058,17 +1109,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1">
         <v>96</v>
@@ -1084,9 +1137,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1094,12 +1149,14 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1">
-        <v>91</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
@@ -1112,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1">
         <v>80</v>
@@ -1124,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1132,12 +1189,14 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1">
-        <v>63</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
@@ -1150,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1">
         <v>62</v>
@@ -1162,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1170,17 +1229,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1188,15 +1249,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1204,15 +1269,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1220,17 +1289,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1">
         <v>29</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1238,15 +1309,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1254,580 +1329,752 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" s="1">
         <v>23</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="1">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1">
         <v>18</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1">
         <v>17</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1">
         <v>13</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1">
         <v>9</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="1">
-        <v>17</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="1">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="1">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="1">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="1">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="1">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D58" s="1">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,6 +2082,893 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3554</v>
+      </c>
+      <c r="E2" s="1">
+        <v>125</v>
+      </c>
+      <c r="F2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1">
+        <v>296</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1">
+        <v>241</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1">
+        <v>221</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1">
+        <v>206</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <v>152</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E060AD5B-754C-1E4C-BB87-BCC5A5BA20D5}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -2717,7 +3851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466029B-456E-124B-9B1A-E6BFF4A8E651}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -3584,7 +4718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B042FB-9034-D541-B348-29085FA9B6CC}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -4468,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1F0C4D-014C-9646-864D-4C2E0D15963F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -5331,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55474FAD-47BE-A446-80F0-0652C8024DDE}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -6146,7 +7280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D109F2-335E-B842-B29F-32988756D99B}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -6943,7 +8077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422DC1B8-61A7-9F4B-AD6D-16910AF9DAD2}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -7787,7 +8921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14E1D-A573-C549-91F0-85D6781C45FF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -8595,7 +9729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF828E8-2C21-3145-94D4-8BD2B2FC2D5C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -9399,7 +10533,1103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346F2AB-E5EE-2B46-973E-D7558A9055D0}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7153</v>
+      </c>
+      <c r="E2" s="1">
+        <v>249</v>
+      </c>
+      <c r="F2" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>599</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>535</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="1">
+        <v>422</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1">
+        <v>389</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>297</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1">
+        <v>286</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>247</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1">
+        <v>207</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1">
+        <v>206</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1">
+        <v>202</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1">
+        <v>168</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1">
+        <v>144</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="1">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="1">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="1">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74C6ACE-A5E7-894A-9E03-A4D184028106}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -10201,1080 +12431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
-  <dimension ref="A1:F64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7153</v>
-      </c>
-      <c r="E2" s="1">
-        <v>249</v>
-      </c>
-      <c r="F2" s="1">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="1">
-        <v>537</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="1">
-        <v>436</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="1">
-        <v>352</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1">
-        <v>332</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="1">
-        <v>240</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="1">
-        <v>238</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="1">
-        <v>237</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="1">
-        <v>184</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="1">
-        <v>177</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="1">
-        <v>168</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="1">
-        <v>153</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="1">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="1">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="1">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1">
-        <v>88</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="1">
-        <v>87</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="1">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="1">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="1">
-        <v>58</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="1">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="1">
-        <v>35</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="1">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="1">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="1">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="1">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="1">
-        <v>17</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="1">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="1">
-        <v>11</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="1">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="1">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="1">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F996331F-AA5D-7040-8F17-DE10C3DA49A5}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -12035,7 +13192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459AF105-9E29-6E4D-801B-CA0BFB7BA013}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -12739,7 +13896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4DD976-0303-C747-BFEB-22EC0C288A7A}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -13541,7 +14698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5045D7-534A-2941-A13E-3353E7C989D0}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -14143,7 +15300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B2472-BF00-6D4E-8BC5-C6308F1CA7BB}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -14593,11 +15750,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A9920-2064-AD4F-9EB3-F8CF1BA64454}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7153</v>
+      </c>
+      <c r="E2" s="1">
+        <v>249</v>
+      </c>
+      <c r="F2" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>537</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1">
+        <v>436</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1">
+        <v>352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="1">
+        <v>332</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="1">
+        <v>238</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1">
+        <v>237</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1">
+        <v>184</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1">
+        <v>139</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="1">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7C75-A8A3-874C-BC87-4A09D12019C4}">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15649,7 +17879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C3779-7322-B347-9AEE-79E794B2FD63}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -16659,7 +18889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A92FA9-C4D2-D54D-A858-31DC22BED2E4}">
   <dimension ref="A1:F59"/>
   <sheetViews>
@@ -17652,7 +19882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33442B0-0FCD-C24F-82A7-97538A6C6A0F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -18614,7 +20844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09DF1A-6004-3F41-87FE-5242A451DCFE}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -19547,7 +21777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CB9813-8C08-1D4E-84D9-F0E88353F568}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -20434,891 +22664,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30479F-90F4-334C-8C59-590760A6FAA8}">
-  <dimension ref="A1:F53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3554</v>
-      </c>
-      <c r="E2" s="1">
-        <v>125</v>
-      </c>
-      <c r="F2" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1">
-        <v>296</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1">
-        <v>241</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1">
-        <v>221</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1">
-        <v>206</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1">
-        <v>152</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1">
-        <v>147</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1">
-        <v>121</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1">
-        <v>109</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1">
-        <v>108</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="1">
-        <v>99</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="1">
-        <v>91</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="1">
-        <v>82</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="1">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="1">
-        <v>36</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="1">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="1">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B1633-F2F0-F64B-AE0F-4C7BE0BF0D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA636C97-CFE2-F64C-82F7-1B229976EA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1780" windowWidth="32760" windowHeight="19260" activeTab="1" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="8360" yWindow="1760" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-18-00" sheetId="25" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F26623-7B35-924B-8FDE-4D43C4428BD9}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,13 +872,13 @@
         <v>106</v>
       </c>
       <c r="D5" s="1">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>106</v>
       </c>
       <c r="D13" s="1">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>106</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>106</v>
       </c>
       <c r="D18" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>106</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>106</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -10537,8 +10537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D346F2AB-E5EE-2B46-973E-D7558A9055D0}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA636C97-CFE2-F64C-82F7-1B229976EA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C7121-56D7-4547-A79C-224D0C6F9F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="1760" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="10920" yWindow="7240" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-18-00" sheetId="25" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F26623-7B35-924B-8FDE-4D43C4428BD9}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,13 +832,13 @@
         <v>106</v>
       </c>
       <c r="D3" s="1">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="1">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="1">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>106</v>
       </c>
       <c r="D8" s="1">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -972,7 +972,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="1">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>106</v>
       </c>
       <c r="D11" s="1">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="1">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>106</v>
       </c>
       <c r="D20" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>106</v>
       </c>
       <c r="D26" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>106</v>
       </c>
       <c r="D27" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>106</v>
       </c>
       <c r="D34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C7121-56D7-4547-A79C-224D0C6F9F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9ECC9-92ED-1641-A273-8DED0CF04183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="7240" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="10680" yWindow="1900" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-18-00" sheetId="25" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F26623-7B35-924B-8FDE-4D43C4428BD9}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,7 +835,7 @@
         <v>661</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>23</v>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9ECC9-92ED-1641-A273-8DED0CF04183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C434C58-365B-294E-8483-C930DABEC689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1900" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="14160" yWindow="2900" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-18-00" sheetId="25" r:id="rId1"/>
@@ -769,7 +769,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1A260-74C6-D84A-AB9C-FBD1D27FA426}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E155AD7-3F58-F640-915C-49E2C1C2D3F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11660" yWindow="3780" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="114">
   <si>
     <t>Province/State</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>2/01/2020 23:00</t>
   </si>
 </sst>
 </file>
@@ -769,13 +772,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CFD23-DF45-3A47-808D-0B0F580DB005}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1">
         <v>9074</v>
@@ -829,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1">
         <v>661</v>
@@ -849,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>604</v>
@@ -869,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1">
         <v>493</v>
@@ -889,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1">
         <v>463</v>
@@ -909,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1">
         <v>340</v>
@@ -929,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1">
         <v>333</v>
@@ -949,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1">
         <v>262</v>
@@ -969,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1">
         <v>231</v>
@@ -989,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1">
         <v>225</v>
@@ -1009,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1">
         <v>236</v>
@@ -1029,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1">
         <v>177</v>
@@ -1049,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1">
         <v>183</v>
@@ -1069,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
         <v>159</v>
@@ -1089,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1">
         <v>116</v>
@@ -1109,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1">
         <v>111</v>
@@ -1129,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1">
         <v>104</v>
@@ -1149,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1">
         <v>93</v>
@@ -1169,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1">
         <v>95</v>
@@ -1189,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1">
         <v>64</v>
@@ -1209,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1">
         <v>63</v>
@@ -1229,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1">
         <v>56</v>
@@ -1249,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1">
         <v>45</v>
@@ -1269,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -1289,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1">
         <v>38</v>
@@ -1309,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1">
         <v>28</v>
@@ -1329,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1">
         <v>27</v>
@@ -1347,7 +1351,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D29" s="1">
         <v>20</v>
@@ -1365,7 +1369,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1">
         <v>19</v>
@@ -1385,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1">
         <v>21</v>
@@ -1405,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1">
         <v>23</v>
@@ -1423,7 +1427,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D33" s="1">
         <v>16</v>
@@ -1443,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D34" s="1">
         <v>14</v>
@@ -1461,7 +1465,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1">
         <v>15</v>
@@ -1481,7 +1485,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
@@ -1501,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1">
         <v>9</v>
@@ -1519,7 +1523,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -1537,7 +1541,7 @@
         <v>63</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -1557,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1">
         <v>7</v>
@@ -1575,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1">
         <v>6</v>
@@ -1593,7 +1597,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
@@ -1613,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1633,7 +1637,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -1651,7 +1655,7 @@
         <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1671,7 +1675,7 @@
         <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -1691,7 +1695,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -1711,7 +1715,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -1732,7 +1736,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -1750,7 +1754,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -1768,7 +1772,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -1788,7 +1792,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -1811,7 +1815,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -1829,7 +1833,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1849,7 +1853,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -1867,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1885,7 +1889,7 @@
         <v>95</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1905,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1923,7 +1927,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1941,7 +1945,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -1959,7 +1963,7 @@
         <v>102</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1977,7 +1981,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1995,7 +1999,7 @@
         <v>101</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2015,7 +2019,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -2038,7 +2042,7 @@
         <v>42</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2061,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E155AD7-3F58-F640-915C-49E2C1C2D3F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E089F-B660-2344-94F5-74110074247F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="3780" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="7160" yWindow="2860" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-23-00" sheetId="26" r:id="rId1"/>
@@ -43,6 +43,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2020-02-01-10-00'!$A$1:$F$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020-02-01-18-00'!$A$1:$G$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020-02-01-23-00'!$A$1:$G$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -770,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8CFD23-DF45-3A47-808D-0B0F580DB005}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,296 +808,282 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="1">
-        <v>9074</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>215</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>661</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="1">
-        <v>604</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="1">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="1">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="1">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="1">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="1">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="1">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="1">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="1">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="1">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="1">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1105,9 +1092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1116,18 +1103,21 @@
         <v>113</v>
       </c>
       <c r="D17" s="1">
-        <v>111</v>
+        <v>9074</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1136,18 +1126,21 @@
         <v>113</v>
       </c>
       <c r="D18" s="1">
-        <v>104</v>
+        <v>661</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1156,18 +1149,21 @@
         <v>113</v>
       </c>
       <c r="D19" s="1">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1176,18 +1172,21 @@
         <v>113</v>
       </c>
       <c r="D20" s="1">
-        <v>95</v>
+        <v>493</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -1196,18 +1195,21 @@
         <v>113</v>
       </c>
       <c r="D21" s="1">
-        <v>64</v>
+        <v>463</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1216,18 +1218,21 @@
         <v>113</v>
       </c>
       <c r="D22" s="1">
-        <v>63</v>
+        <v>340</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1236,18 +1241,21 @@
         <v>113</v>
       </c>
       <c r="D23" s="1">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1256,18 +1264,21 @@
         <v>113</v>
       </c>
       <c r="D24" s="1">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1276,18 +1287,21 @@
         <v>113</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -1296,18 +1310,21 @@
         <v>113</v>
       </c>
       <c r="D26" s="1">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -1316,18 +1333,21 @@
         <v>113</v>
       </c>
       <c r="D27" s="1">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -1336,54 +1356,67 @@
         <v>113</v>
       </c>
       <c r="D28" s="1">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="1">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
@@ -1392,7 +1425,7 @@
         <v>113</v>
       </c>
       <c r="D31" s="1">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1400,10 +1433,13 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -1412,94 +1448,113 @@
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="1">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="1">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D36" s="1">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -1508,43 +1563,53 @@
         <v>113</v>
       </c>
       <c r="D37" s="1">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -1552,19 +1617,22 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1572,35 +1640,45 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -1608,39 +1686,45 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1648,37 +1732,45 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -1686,19 +1778,22 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="1"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -1706,40 +1801,38 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -1751,7 +1844,7 @@
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>113</v>
@@ -1760,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1769,7 +1862,7 @@
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>113</v>
@@ -1785,17 +1878,15 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -1803,22 +1894,17 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1830,7 +1916,7 @@
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>113</v>
@@ -1846,11 +1932,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>113</v>
@@ -1865,10 +1949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>113</v>
@@ -1883,16 +1967,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -1902,35 +1988,33 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -1939,34 +2023,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -1974,17 +2060,22 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -1992,11 +2083,16 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>113</v>
@@ -2010,10 +2106,13 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>112</v>
+      <c r="A64" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>42</v>
@@ -2031,12 +2130,12 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>42</v>
@@ -2054,30 +2153,25 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dash-2019-coronavirus/data.xlsx
+++ b/dash-2019-coronavirus/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7E089F-B660-2344-94F5-74110074247F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818C7E2-A3D0-FE47-B8FC-FBBE7CDB88B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="2860" windowWidth="32760" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
+    <workbookView xWindow="13280" yWindow="1060" windowWidth="20780" windowHeight="19260" xr2:uid="{66589947-9D93-AC48-8CDC-7FAFDE9EADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-02-01-23-00" sheetId="26" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,282 +808,296 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>9074</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>604</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>493</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="1">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="1">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1094,7 +1108,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1103,13 +1117,13 @@
         <v>113</v>
       </c>
       <c r="D17" s="1">
-        <v>9074</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
@@ -1117,7 +1131,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -1126,13 +1140,13 @@
         <v>113</v>
       </c>
       <c r="D18" s="1">
-        <v>661</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
@@ -1140,7 +1154,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -1149,13 +1163,13 @@
         <v>113</v>
       </c>
       <c r="D19" s="1">
-        <v>604</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
@@ -1163,7 +1177,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1172,13 +1186,13 @@
         <v>113</v>
       </c>
       <c r="D20" s="1">
-        <v>493</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
@@ -1186,7 +1200,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -1195,13 +1209,13 @@
         <v>113</v>
       </c>
       <c r="D21" s="1">
-        <v>463</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="4"/>
@@ -1209,7 +1223,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1218,13 +1232,13 @@
         <v>113</v>
       </c>
       <c r="D22" s="1">
-        <v>340</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
@@ -1232,7 +1246,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1241,13 +1255,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="1">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4"/>
@@ -1255,7 +1269,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1264,13 +1278,13 @@
         <v>113</v>
       </c>
       <c r="D24" s="1">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="4"/>
@@ -1278,7 +1292,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1287,13 +1301,13 @@
         <v>113</v>
       </c>
       <c r="D25" s="1">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
@@ -1301,7 +1315,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -1310,13 +1324,13 @@
         <v>113</v>
       </c>
       <c r="D26" s="1">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="4"/>
@@ -1324,7 +1338,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -1333,13 +1347,13 @@
         <v>113</v>
       </c>
       <c r="D27" s="1">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
@@ -1347,7 +1361,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -1356,13 +1370,13 @@
         <v>113</v>
       </c>
       <c r="D28" s="1">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
@@ -1370,7 +1384,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1379,13 +1393,13 @@
         <v>113</v>
       </c>
       <c r="D29" s="1">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="4"/>
@@ -1393,7 +1407,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -1402,7 +1416,7 @@
         <v>113</v>
       </c>
       <c r="D30" s="1">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1415,92 +1429,84 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D31" s="1">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="4"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="1">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="4"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="1">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="1">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="4"/>
@@ -1508,22 +1514,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
@@ -1531,22 +1537,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D36" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -1563,53 +1569,49 @@
         <v>113</v>
       </c>
       <c r="D37" s="1">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="4"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="1">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="1">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -1623,16 +1625,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1645,46 +1647,42 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="1">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="4"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D42" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
@@ -1692,22 +1690,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="4"/>
@@ -1715,16 +1713,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1737,23 +1735,21 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="4"/>
@@ -1761,16 +1757,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -1784,16 +1780,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -1806,33 +1802,38 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -1877,16 +1878,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D52" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -1896,15 +1897,17 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -1912,11 +1915,16 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="G53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>113</v>
@@ -1931,10 +1939,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>113</v>
@@ -1950,9 +1958,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>113</v>
@@ -1967,18 +1977,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -1987,34 +1995,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2023,16 +2033,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2041,18 +2051,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2060,22 +2068,17 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2083,16 +2086,11 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>112</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>113</v>
@@ -2106,13 +2104,10 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>41</v>
+      <c r="A64" t="s">
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>42</v>
@@ -2130,12 +2125,12 @@
         <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>42</v>
@@ -2153,25 +2148,30 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D66" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
